--- a/tabular/contributed/180309 GLE PIB TABLE.xlsx
+++ b/tabular/contributed/180309 GLE PIB TABLE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13860" yWindow="4460" windowWidth="28100" windowHeight="21400"/>
+    <workbookView xWindow="12980" yWindow="1720" windowWidth="41640" windowHeight="24960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GLE" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="137">
   <si>
     <t>Substitution</t>
   </si>
@@ -409,6 +409,39 @@
   </si>
   <si>
     <t xml:space="preserve">Clinical trials within pooled analysis of EASL 2017 FRI 205 </t>
+  </si>
+  <si>
+    <t>clinicalTrialName</t>
+  </si>
+  <si>
+    <t>virusGenotype</t>
+  </si>
+  <si>
+    <t>drug</t>
+  </si>
+  <si>
+    <t>gene</t>
+  </si>
+  <si>
+    <t>substitution</t>
+  </si>
+  <si>
+    <t>vitroOrVivo</t>
+  </si>
+  <si>
+    <t>ec50</t>
+  </si>
+  <si>
+    <t>pubmed</t>
+  </si>
+  <si>
+    <t>trialRegimen</t>
+  </si>
+  <si>
+    <t>trialCohort</t>
+  </si>
+  <si>
+    <t>trialNotes</t>
   </si>
 </sst>
 </file>
@@ -684,10 +717,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -996,18 +1029,18 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P25" sqref="P25"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.1640625" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="29" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="29" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" style="29" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="29" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" style="30" customWidth="1"/>
@@ -1021,25 +1054,25 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>15</v>
@@ -1051,7 +1084,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>17</v>
@@ -1059,53 +1092,77 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="26">
+        <v>1361</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="25">
+        <v>29084747</v>
+      </c>
+      <c r="L2" s="27"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="A3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="26">
+        <v>4</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="25">
+        <v>29084747</v>
+      </c>
+      <c r="L3" s="27"/>
       <c r="M3" s="19"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -1113,7 +1170,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>12</v>
@@ -1125,7 +1182,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="26">
-        <v>1361</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>38</v>
@@ -1149,8 +1206,8 @@
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>30</v>
+      <c r="B5" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>12</v>
@@ -1162,7 +1219,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="26">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>38</v>
@@ -1186,8 +1243,8 @@
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>31</v>
+      <c r="B6" s="25" t="s">
+        <v>40</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>12</v>
@@ -1199,7 +1256,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="26">
-        <v>4.4000000000000004</v>
+        <v>3585</v>
       </c>
       <c r="G6" s="25" t="s">
         <v>38</v>
@@ -1224,10 +1281,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>37</v>
@@ -1236,7 +1293,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="26">
-        <v>3.3</v>
+        <v>640</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>38</v>
@@ -1261,10 +1318,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>37</v>
@@ -1273,7 +1330,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="26">
-        <v>3585</v>
+        <v>1786</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>38</v>
@@ -1290,7 +1347,7 @@
       <c r="K8" s="25">
         <v>29084747</v>
       </c>
-      <c r="L8" s="27"/>
+      <c r="L8" s="20"/>
       <c r="M8" s="19"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -1298,7 +1355,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>14</v>
@@ -1310,7 +1367,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="26">
-        <v>640</v>
+        <v>3.2</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>38</v>
@@ -1327,17 +1384,17 @@
       <c r="K9" s="25">
         <v>29084747</v>
       </c>
-      <c r="L9" s="27"/>
+      <c r="L9" s="20"/>
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -1346,8 +1403,8 @@
       <c r="E10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="26">
-        <v>1786</v>
+      <c r="F10" s="21">
+        <v>1674</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>38</v>
@@ -1372,9 +1429,9 @@
         <v>23</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="28" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="25" t="s">
@@ -1384,7 +1441,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="26">
-        <v>3.2</v>
+        <v>4234</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>38</v>
@@ -1409,7 +1466,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>14</v>
@@ -1421,7 +1478,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="21">
-        <v>1674</v>
+        <v>5244</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>38</v>
@@ -1445,11 +1502,11 @@
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>42</v>
+      <c r="B13" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>37</v>
@@ -1457,8 +1514,8 @@
       <c r="E13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="26">
-        <v>4234</v>
+      <c r="F13" s="21">
+        <v>216</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>38</v>
@@ -1483,10 +1540,10 @@
         <v>23</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>37</v>
@@ -1495,7 +1552,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="21">
-        <v>5244</v>
+        <v>1143</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>38</v>
@@ -1520,7 +1577,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>44</v>
@@ -1532,7 +1589,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="21">
-        <v>216</v>
+        <v>3.3</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>38</v>
@@ -1557,7 +1614,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>44</v>
@@ -1569,7 +1626,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="21">
-        <v>1143</v>
+        <v>2</v>
       </c>
       <c r="G16" s="25" t="s">
         <v>38</v>
@@ -1594,10 +1651,10 @@
         <v>23</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>37</v>
@@ -1606,7 +1663,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="21">
-        <v>3.3</v>
+        <v>148</v>
       </c>
       <c r="G17" s="25" t="s">
         <v>38</v>
@@ -1631,10 +1688,10 @@
         <v>23</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>37</v>
@@ -1643,7 +1700,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="21">
-        <v>2</v>
+        <v>1455</v>
       </c>
       <c r="G18" s="25" t="s">
         <v>38</v>
@@ -1668,7 +1725,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C19" s="28" t="s">
         <v>45</v>
@@ -1680,7 +1737,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="21">
-        <v>148</v>
+        <v>2.1</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>38</v>
@@ -1705,7 +1762,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C20" s="28" t="s">
         <v>45</v>
@@ -1717,7 +1774,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="21">
-        <v>1455</v>
+        <v>2.9</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>38</v>
@@ -1742,10 +1799,10 @@
         <v>23</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>37</v>
@@ -1754,7 +1811,7 @@
         <v>13</v>
       </c>
       <c r="F21" s="21">
-        <v>2.1</v>
+        <v>1654</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>38</v>
@@ -1779,10 +1836,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>37</v>
@@ -1791,7 +1848,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="21">
-        <v>2.9</v>
+        <v>54</v>
       </c>
       <c r="G22" s="25" t="s">
         <v>38</v>
@@ -1816,7 +1873,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>46</v>
@@ -1828,7 +1885,7 @@
         <v>13</v>
       </c>
       <c r="F23" s="21">
-        <v>1654</v>
+        <v>1387</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>38</v>
@@ -1853,10 +1910,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>37</v>
@@ -1865,7 +1922,7 @@
         <v>13</v>
       </c>
       <c r="F24" s="21">
-        <v>54</v>
+        <v>2.6</v>
       </c>
       <c r="G24" s="25" t="s">
         <v>38</v>
@@ -1890,10 +1947,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>37</v>
@@ -1902,7 +1959,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="21">
-        <v>1387</v>
+        <v>1436</v>
       </c>
       <c r="G25" s="25" t="s">
         <v>38</v>
@@ -1927,7 +1984,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>47</v>
@@ -1939,7 +1996,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="21">
-        <v>2.6</v>
+        <v>3106</v>
       </c>
       <c r="G26" s="25" t="s">
         <v>38</v>
@@ -1964,7 +2021,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C27" s="28" t="s">
         <v>47</v>
@@ -1976,7 +2033,7 @@
         <v>13</v>
       </c>
       <c r="F27" s="21">
-        <v>1436</v>
+        <v>22</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>38</v>
@@ -2001,7 +2058,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>47</v>
@@ -2013,7 +2070,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="21">
-        <v>3106</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G28" s="25" t="s">
         <v>38</v>
@@ -2034,37 +2091,37 @@
       <c r="M28" s="19"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="21">
-        <v>22</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="J29" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="K29" s="25">
+      <c r="A29" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="41">
+        <v>4.2</v>
+      </c>
+      <c r="G29" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29" s="39">
         <v>29084747</v>
       </c>
       <c r="L29" s="20"/>
@@ -2075,10 +2132,10 @@
         <v>23</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>37</v>
@@ -2087,7 +2144,7 @@
         <v>13</v>
       </c>
       <c r="F30" s="21">
-        <v>9.6999999999999993</v>
+        <v>38</v>
       </c>
       <c r="G30" s="25" t="s">
         <v>38</v>
@@ -2108,37 +2165,37 @@
       <c r="M30" s="19"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="41">
-        <v>4.2</v>
-      </c>
-      <c r="G31" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="K31" s="39">
+      <c r="A31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="21">
+        <v>81</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="K31" s="25">
         <v>29084747</v>
       </c>
       <c r="L31" s="20"/>
@@ -2152,7 +2209,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>37</v>
@@ -2161,7 +2218,7 @@
         <v>13</v>
       </c>
       <c r="F32" s="21">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="G32" s="25" t="s">
         <v>38</v>
@@ -2186,7 +2243,7 @@
         <v>23</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>49</v>
@@ -2198,7 +2255,7 @@
         <v>13</v>
       </c>
       <c r="F33" s="21">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="G33" s="25" t="s">
         <v>38</v>
@@ -2223,7 +2280,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C34" s="28" t="s">
         <v>49</v>
@@ -2235,7 +2292,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="21">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>38</v>
@@ -2260,25 +2317,25 @@
         <v>23</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>49</v>
+        <v>26</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>12</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>37</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="21">
-        <v>38</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="25" t="s">
-        <v>38</v>
+        <v>8</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>71</v>
       </c>
       <c r="I35" s="25" t="s">
         <v>38</v>
@@ -2286,8 +2343,8 @@
       <c r="J35" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="K35" s="25">
-        <v>29084747</v>
+      <c r="K35" s="25" t="s">
+        <v>72</v>
       </c>
       <c r="L35" s="20"/>
       <c r="M35" s="19"/>
@@ -2297,25 +2354,25 @@
         <v>23</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>49</v>
+        <v>75</v>
+      </c>
+      <c r="C36" s="20">
+        <v>3</v>
       </c>
       <c r="D36" s="25" t="s">
         <v>37</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="21">
-        <v>153</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="25" t="s">
-        <v>38</v>
+        <v>8</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>71</v>
       </c>
       <c r="I36" s="25" t="s">
         <v>38</v>
@@ -2323,8 +2380,8 @@
       <c r="J36" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="K36" s="25">
-        <v>29084747</v>
+      <c r="K36" s="25" t="s">
+        <v>72</v>
       </c>
       <c r="L36" s="20"/>
       <c r="M36" s="19"/>
@@ -2334,10 +2391,10 @@
         <v>23</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>12</v>
+        <v>74</v>
+      </c>
+      <c r="C37" s="20">
+        <v>3</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>37</v>
@@ -2371,7 +2428,7 @@
         <v>23</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" s="20">
         <v>3</v>
@@ -2408,7 +2465,7 @@
         <v>23</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C39" s="20">
         <v>3</v>
@@ -2445,7 +2502,7 @@
         <v>23</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="C40" s="20">
         <v>3</v>
@@ -2482,7 +2539,7 @@
         <v>23</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C41" s="20">
         <v>3</v>
@@ -2519,7 +2576,7 @@
         <v>23</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42" s="20">
         <v>3</v>
@@ -2556,7 +2613,7 @@
         <v>23</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C43" s="20">
         <v>3</v>
@@ -2593,19 +2650,19 @@
         <v>23</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="20">
-        <v>3</v>
+        <v>77</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="D44" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>38</v>
+      <c r="E44" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="21">
+        <v>21</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>70</v>
@@ -2630,19 +2687,19 @@
         <v>23</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="20">
-        <v>3</v>
+        <v>84</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="D45" s="25" t="s">
         <v>37</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="F45" s="21">
+        <v>4.7</v>
       </c>
       <c r="G45" s="28" t="s">
         <v>70</v>
@@ -2666,22 +2723,22 @@
       <c r="A46" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="20" t="s">
+      <c r="B46" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="21">
-        <v>21</v>
-      </c>
-      <c r="G46" s="28" t="s">
+      <c r="E46" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="18">
+        <v>13</v>
+      </c>
+      <c r="G46" s="13" t="s">
         <v>70</v>
       </c>
       <c r="H46" s="28" t="s">
@@ -2693,33 +2750,33 @@
       <c r="J46" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="K46" s="25" t="s">
+      <c r="K46" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="L46" s="20"/>
+      <c r="L46" s="17"/>
       <c r="M46" s="19"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>46</v>
+      <c r="B47" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>37</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="21">
-        <v>4.7</v>
-      </c>
-      <c r="G47" s="28" t="s">
-        <v>70</v>
+        <v>8</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="H47" s="28" t="s">
         <v>71</v>
@@ -2730,10 +2787,10 @@
       <c r="J47" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="K47" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="L47" s="20"/>
+      <c r="K47" s="17">
+        <v>28128852</v>
+      </c>
+      <c r="L47" s="17"/>
       <c r="M47" s="19"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -2741,22 +2798,22 @@
         <v>23</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D48" s="25" t="s">
         <v>37</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="18">
-        <v>13</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>70</v>
+        <v>8</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="H48" s="28" t="s">
         <v>71</v>
@@ -2767,8 +2824,8 @@
       <c r="J48" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="K48" s="13" t="s">
-        <v>72</v>
+      <c r="K48" s="17">
+        <v>28128852</v>
       </c>
       <c r="L48" s="17"/>
       <c r="M48" s="19"/>
@@ -2778,7 +2835,7 @@
         <v>23</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>12</v>
@@ -2815,7 +2872,7 @@
         <v>23</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>12</v>
@@ -2830,7 +2887,7 @@
         <v>38</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H50" s="28" t="s">
         <v>71</v>
@@ -2841,8 +2898,8 @@
       <c r="J50" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="17">
-        <v>28128852</v>
+      <c r="K50" s="13">
+        <v>29152781</v>
       </c>
       <c r="L50" s="17"/>
       <c r="M50" s="19"/>
@@ -2852,7 +2909,7 @@
         <v>23</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C51" s="17" t="s">
         <v>12</v>
@@ -2867,7 +2924,7 @@
         <v>38</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H51" s="28" t="s">
         <v>71</v>
@@ -2878,8 +2935,8 @@
       <c r="J51" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="K51" s="17">
-        <v>28128852</v>
+      <c r="K51" s="13">
+        <v>29152781</v>
       </c>
       <c r="L51" s="17"/>
       <c r="M51" s="19"/>
@@ -2889,7 +2946,7 @@
         <v>23</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>12</v>
@@ -2926,7 +2983,7 @@
         <v>23</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>12</v>
@@ -2963,7 +3020,7 @@
         <v>23</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>12</v>
@@ -3000,7 +3057,7 @@
         <v>23</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>12</v>
@@ -3037,7 +3094,7 @@
         <v>23</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>12</v>
@@ -3074,7 +3131,7 @@
         <v>23</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="C57" s="17" t="s">
         <v>12</v>
@@ -3107,11 +3164,11 @@
       <c r="M57" s="19"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="44" t="s">
         <v>23</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C58" s="17" t="s">
         <v>12</v>
@@ -3140,124 +3197,39 @@
       <c r="K58" s="13">
         <v>29152781</v>
       </c>
-      <c r="L58" s="17"/>
+      <c r="L58" s="43"/>
       <c r="M58" s="19"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G59" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="H59" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="I59" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="J59" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="K59" s="13">
-        <v>29152781</v>
-      </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="19"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G60" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="H60" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="I60" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="J60" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="K60" s="13">
-        <v>29152781</v>
-      </c>
-      <c r="L60" s="43"/>
-      <c r="M60" s="19"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61" s="46" t="s">
+      <c r="A59" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="E61" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="G61" s="46" t="s">
+      <c r="C59" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
-      <c r="J61" s="46"/>
-      <c r="K61" s="46">
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46">
         <v>28412293</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3268,11 +3240,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3293,96 +3265,120 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="8" t="s">
-        <v>22</v>
-      </c>
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="14">
+        <v>94</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="22">
+        <v>28193664</v>
+      </c>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="14">
+        <v>3549</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="22">
+        <v>28193664</v>
+      </c>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>67</v>
+      <c r="A4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>12</v>
@@ -3394,7 +3390,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="14">
-        <v>94</v>
+        <v>2238</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>38</v>
@@ -3418,10 +3414,10 @@
         <v>36</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>53</v>
@@ -3430,7 +3426,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="14">
-        <v>3549</v>
+        <v>14448</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>38</v>
@@ -3453,11 +3449,11 @@
       <c r="A6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>55</v>
+      <c r="B6" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>53</v>
@@ -3466,7 +3462,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="14">
-        <v>2238</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>38</v>
@@ -3489,11 +3485,11 @@
       <c r="A7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>68</v>
+      <c r="B7" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>53</v>
@@ -3502,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="14">
-        <v>14448</v>
+        <v>2.1</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>38</v>
@@ -3526,10 +3522,10 @@
         <v>36</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>53</v>
@@ -3538,7 +3534,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="14">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>38</v>
@@ -3562,7 +3558,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>12</v>
@@ -3574,7 +3570,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="14">
-        <v>2.1</v>
+        <v>6.7</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>38</v>
@@ -3591,14 +3587,14 @@
       <c r="K9" s="22">
         <v>28193664</v>
       </c>
-      <c r="L9" s="15"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>12</v>
@@ -3610,7 +3606,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="14">
-        <v>2.4</v>
+        <v>7.1</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>38</v>
@@ -3627,14 +3623,14 @@
       <c r="K10" s="22">
         <v>28193664</v>
       </c>
-      <c r="L10" s="15"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>12</v>
@@ -3645,8 +3641,8 @@
       <c r="E11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="14">
-        <v>6.7</v>
+      <c r="F11" s="18">
+        <v>3.1</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>38</v>
@@ -3670,7 +3666,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>12</v>
@@ -3682,7 +3678,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="14">
-        <v>7.1</v>
+        <v>2.4</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>38</v>
@@ -3706,7 +3702,7 @@
         <v>36</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>12</v>
@@ -3718,7 +3714,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="18">
-        <v>3.1</v>
+        <v>108</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>38</v>
@@ -3742,7 +3738,7 @@
         <v>36</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>12</v>
@@ -3753,8 +3749,8 @@
       <c r="E14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="14">
-        <v>2.4</v>
+      <c r="F14" s="18">
+        <v>260</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>38</v>
@@ -3778,7 +3774,7 @@
         <v>36</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>12</v>
@@ -3790,7 +3786,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="18">
-        <v>108</v>
+        <v>3.8</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>38</v>
@@ -3814,7 +3810,7 @@
         <v>36</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>12</v>
@@ -3826,7 +3822,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="18">
-        <v>260</v>
+        <v>6.1</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>38</v>
@@ -3850,7 +3846,7 @@
         <v>36</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>12</v>
@@ -3862,7 +3858,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="18">
-        <v>3.8</v>
+        <v>94</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>38</v>
@@ -3886,7 +3882,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>12</v>
@@ -3898,7 +3894,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>6.1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>38</v>
@@ -3922,7 +3918,7 @@
         <v>36</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>12</v>
@@ -3934,7 +3930,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="18">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>38</v>
@@ -3958,10 +3954,10 @@
         <v>36</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>53</v>
@@ -3970,7 +3966,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="18">
-        <v>4.5999999999999996</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>38</v>
@@ -3994,10 +3990,10 @@
         <v>36</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>53</v>
@@ -4006,7 +4002,7 @@
         <v>13</v>
       </c>
       <c r="F21" s="18">
-        <v>42</v>
+        <v>2.1</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>38</v>
@@ -4030,25 +4026,25 @@
         <v>36</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>53</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="18">
-        <v>2.2999999999999998</v>
+        <v>8</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>38</v>
@@ -4056,8 +4052,8 @@
       <c r="J22" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="22">
-        <v>28193664</v>
+      <c r="K22" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="L22" s="17"/>
     </row>
@@ -4066,25 +4062,25 @@
         <v>36</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>53</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="18">
-        <v>2.1</v>
+        <v>8</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>38</v>
@@ -4092,8 +4088,8 @@
       <c r="J23" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="K23" s="22">
-        <v>28193664</v>
+      <c r="K23" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="L23" s="17"/>
     </row>
@@ -4102,7 +4098,7 @@
         <v>36</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>12</v>
@@ -4138,10 +4134,10 @@
         <v>36</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>12</v>
+        <v>79</v>
+      </c>
+      <c r="C25" s="13">
+        <v>3</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>53</v>
@@ -4174,10 +4170,10 @@
         <v>36</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>12</v>
+        <v>80</v>
+      </c>
+      <c r="C26" s="13">
+        <v>3</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>53</v>
@@ -4210,7 +4206,7 @@
         <v>36</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C27" s="13">
         <v>3</v>
@@ -4246,7 +4242,7 @@
         <v>36</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C28" s="13">
         <v>3</v>
@@ -4282,7 +4278,7 @@
         <v>36</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C29" s="13">
         <v>3</v>
@@ -4318,7 +4314,7 @@
         <v>36</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C30" s="13">
         <v>3</v>
@@ -4354,7 +4350,7 @@
         <v>36</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="C31" s="13">
         <v>3</v>
@@ -4390,19 +4386,19 @@
         <v>36</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="13">
-        <v>3</v>
+        <v>86</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>53</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="F32" s="18">
+        <v>131</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>107</v>
@@ -4426,19 +4422,19 @@
         <v>36</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="13">
-        <v>3</v>
+        <v>87</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>53</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="F33" s="18">
+        <v>23</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>107</v>
@@ -4462,7 +4458,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>12</v>
@@ -4474,7 +4470,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="18">
-        <v>131</v>
+        <v>1704</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>107</v>
@@ -4498,10 +4494,10 @@
         <v>36</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>53</v>
@@ -4510,7 +4506,7 @@
         <v>13</v>
       </c>
       <c r="F35" s="18">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>107</v>
@@ -4534,7 +4530,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>12</v>
@@ -4543,13 +4539,13 @@
         <v>53</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="18">
-        <v>1704</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>107</v>
+        <v>8</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>71</v>
@@ -4560,8 +4556,8 @@
       <c r="J36" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="K36" s="22" t="s">
-        <v>72</v>
+      <c r="K36" s="23">
+        <v>28128852</v>
       </c>
       <c r="L36" s="17"/>
     </row>
@@ -4570,22 +4566,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>53</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="18">
-        <v>69</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>107</v>
+        <v>8</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>71</v>
@@ -4596,8 +4592,8 @@
       <c r="J37" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="K37" s="22" t="s">
-        <v>72</v>
+      <c r="K37" s="23">
+        <v>28128852</v>
       </c>
       <c r="L37" s="17"/>
     </row>
@@ -4606,7 +4602,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>12</v>
@@ -4642,7 +4638,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>12</v>
@@ -4678,7 +4674,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>12</v>
@@ -4693,7 +4689,7 @@
         <v>38</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>71</v>
@@ -4704,8 +4700,8 @@
       <c r="J40" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="K40" s="23">
-        <v>28128852</v>
+      <c r="K40" s="22">
+        <v>29152781</v>
       </c>
       <c r="L40" s="17"/>
     </row>
@@ -4714,7 +4710,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>12</v>
@@ -4729,7 +4725,7 @@
         <v>38</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>71</v>
@@ -4740,8 +4736,8 @@
       <c r="J41" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="K41" s="23">
-        <v>28128852</v>
+      <c r="K41" s="22">
+        <v>29152781</v>
       </c>
       <c r="L41" s="17"/>
     </row>
@@ -4749,8 +4745,8 @@
       <c r="A42" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>58</v>
+      <c r="B42" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>12</v>
@@ -4786,7 +4782,7 @@
         <v>36</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>12</v>
@@ -4818,37 +4814,37 @@
       <c r="L43" s="17"/>
     </row>
     <row r="44" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="17" t="s">
+      <c r="A44" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="H44" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J44" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K44" s="22">
+      <c r="H44" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I44" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K44" s="40">
         <v>29152781</v>
       </c>
       <c r="L44" s="17"/>
@@ -4858,7 +4854,7 @@
         <v>36</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>12</v>
@@ -4890,37 +4886,37 @@
       <c r="L45" s="17"/>
     </row>
     <row r="46" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="E46" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="42" t="s">
+      <c r="A46" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="H46" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="I46" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="J46" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="K46" s="40">
+      <c r="H46" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K46" s="22">
         <v>29152781</v>
       </c>
       <c r="L46" s="17"/>
@@ -4930,7 +4926,7 @@
         <v>36</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>12</v>
@@ -4962,37 +4958,37 @@
       <c r="L47" s="17"/>
     </row>
     <row r="48" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G48" s="17" t="s">
+      <c r="A48" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="H48" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J48" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K48" s="22">
+      <c r="H48" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I48" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="J48" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K48" s="40">
         <v>29152781</v>
       </c>
       <c r="L48" s="17"/>
@@ -5002,7 +4998,7 @@
         <v>36</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>12</v>
@@ -5034,37 +5030,37 @@
       <c r="L49" s="17"/>
     </row>
     <row r="50" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="E50" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="G50" s="42" t="s">
+      <c r="A50" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="H50" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="I50" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="J50" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="K50" s="40">
+      <c r="H50" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K50" s="22">
         <v>29152781</v>
       </c>
       <c r="L50" s="17"/>
@@ -5074,7 +5070,7 @@
         <v>36</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>12</v>
@@ -5106,37 +5102,37 @@
       <c r="L51" s="17"/>
     </row>
     <row r="52" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G52" s="17" t="s">
+      <c r="A52" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="H52" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J52" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K52" s="22">
+      <c r="H52" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I52" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="J52" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K52" s="40">
         <v>29152781</v>
       </c>
       <c r="L52" s="17"/>
@@ -5146,7 +5142,7 @@
         <v>36</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>12</v>
@@ -5178,37 +5174,37 @@
       <c r="L53" s="17"/>
     </row>
     <row r="54" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="E54" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="G54" s="42" t="s">
+      <c r="A54" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G54" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="H54" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="I54" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="J54" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="K54" s="40">
+      <c r="H54" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K54" s="22">
         <v>29152781</v>
       </c>
       <c r="L54" s="17"/>
@@ -5218,7 +5214,7 @@
         <v>36</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>12</v>
@@ -5254,7 +5250,7 @@
         <v>36</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>12</v>
@@ -5285,30 +5281,30 @@
       </c>
       <c r="L56" s="17"/>
     </row>
-    <row r="57" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B57" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>12</v>
+      <c r="B57" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="20" t="s">
         <v>8</v>
       </c>
       <c r="F57" s="18" t="s">
         <v>38</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="I57" s="13" t="s">
         <v>38</v>
@@ -5316,35 +5312,35 @@
       <c r="J57" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="K57" s="22">
-        <v>29152781</v>
+      <c r="K57" s="24">
+        <v>26778412</v>
       </c>
       <c r="L57" s="17"/>
     </row>
-    <row r="58" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>12</v>
+      <c r="B58" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="20" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="18" t="s">
         <v>38</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="I58" s="13" t="s">
         <v>38</v>
@@ -5352,8 +5348,8 @@
       <c r="J58" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="K58" s="22">
-        <v>29152781</v>
+      <c r="K58" s="24">
+        <v>26778412</v>
       </c>
       <c r="L58" s="17"/>
     </row>
@@ -5362,7 +5358,7 @@
         <v>36</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C59" s="20" t="s">
         <v>46</v>
@@ -5371,10 +5367,10 @@
         <v>53</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="18" t="s">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>106</v>
       </c>
       <c r="G59" s="17" t="s">
         <v>108</v>
@@ -5393,90 +5389,7 @@
       </c>
       <c r="L59" s="17"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G60" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H60" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I60" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J60" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K60" s="24">
-        <v>26778412</v>
-      </c>
-      <c r="L60" s="17"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="G61" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I61" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J61" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K61" s="24">
-        <v>26778412</v>
-      </c>
-      <c r="L61" s="17"/>
-    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5609,30 +5522,30 @@
     </row>
     <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="51" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="11" t="s">
@@ -5641,16 +5554,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="9"/>
       <c r="F3" s="52"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
       <c r="L3" s="11" t="s">
         <v>22</v>
       </c>
@@ -7866,30 +7779,30 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="51" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="11" t="s">
@@ -7899,16 +7812,16 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="9"/>
       <c r="F3" s="52"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
       <c r="L3" s="11" t="s">
         <v>22</v>
       </c>

--- a/tabular/contributed/180309 GLE PIB TABLE.xlsx
+++ b/tabular/contributed/180309 GLE PIB TABLE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12980" yWindow="1720" windowWidth="41640" windowHeight="24960" activeTab="1"/>
+    <workbookView xWindow="8340" yWindow="1720" windowWidth="41640" windowHeight="24960"/>
   </bookViews>
   <sheets>
     <sheet name="GLE" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="139">
   <si>
     <t>Substitution</t>
   </si>
@@ -442,6 +442,12 @@
   </si>
   <si>
     <t>trialNotes</t>
+  </si>
+  <si>
+    <t>EASL_2017_FRI_205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EASL_2017_FRI_205 </t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1037,7 @@
   </sheetPr>
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
@@ -2344,7 +2350,7 @@
         <v>38</v>
       </c>
       <c r="K35" s="25" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="L35" s="20"/>
       <c r="M35" s="19"/>
@@ -2381,7 +2387,7 @@
         <v>38</v>
       </c>
       <c r="K36" s="25" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="L36" s="20"/>
       <c r="M36" s="19"/>
@@ -2418,7 +2424,7 @@
         <v>38</v>
       </c>
       <c r="K37" s="25" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="L37" s="20"/>
       <c r="M37" s="19"/>
@@ -2455,7 +2461,7 @@
         <v>38</v>
       </c>
       <c r="K38" s="25" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="L38" s="20"/>
       <c r="M38" s="19"/>
@@ -2492,7 +2498,7 @@
         <v>38</v>
       </c>
       <c r="K39" s="25" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="L39" s="20"/>
       <c r="M39" s="19"/>
@@ -2529,7 +2535,7 @@
         <v>38</v>
       </c>
       <c r="K40" s="25" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="L40" s="20"/>
       <c r="M40" s="19"/>
@@ -2566,7 +2572,7 @@
         <v>38</v>
       </c>
       <c r="K41" s="25" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="L41" s="20"/>
       <c r="M41" s="19"/>
@@ -2603,7 +2609,7 @@
         <v>38</v>
       </c>
       <c r="K42" s="25" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="L42" s="20"/>
       <c r="M42" s="19"/>
@@ -2640,7 +2646,7 @@
         <v>38</v>
       </c>
       <c r="K43" s="25" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="L43" s="20"/>
       <c r="M43" s="19"/>
@@ -2677,7 +2683,7 @@
         <v>38</v>
       </c>
       <c r="K44" s="25" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="L44" s="20"/>
       <c r="M44" s="19"/>
@@ -2714,7 +2720,7 @@
         <v>38</v>
       </c>
       <c r="K45" s="25" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="L45" s="20"/>
       <c r="M45" s="19"/>
@@ -2751,7 +2757,7 @@
         <v>38</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="L46" s="17"/>
       <c r="M46" s="19"/>
@@ -3242,9 +3248,9 @@
   </sheetPr>
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4053,7 +4059,7 @@
         <v>38</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="L22" s="17"/>
     </row>
@@ -4089,7 +4095,7 @@
         <v>38</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="L23" s="17"/>
     </row>
@@ -4125,7 +4131,7 @@
         <v>38</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="L24" s="17"/>
     </row>
@@ -4161,7 +4167,7 @@
         <v>38</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="L25" s="17"/>
     </row>
@@ -4197,7 +4203,7 @@
         <v>38</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="L26" s="17"/>
     </row>
@@ -4233,7 +4239,7 @@
         <v>38</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="L27" s="17"/>
     </row>
@@ -4269,7 +4275,7 @@
         <v>38</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="L28" s="17"/>
     </row>
@@ -4305,7 +4311,7 @@
         <v>38</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="L29" s="17"/>
     </row>
@@ -4341,7 +4347,7 @@
         <v>38</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="L30" s="17"/>
     </row>
@@ -4377,7 +4383,7 @@
         <v>38</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="L31" s="17"/>
     </row>
@@ -4413,7 +4419,7 @@
         <v>38</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="L32" s="17"/>
     </row>
@@ -4449,7 +4455,7 @@
         <v>38</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="L33" s="17"/>
     </row>
@@ -4485,7 +4491,7 @@
         <v>38</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="L34" s="17"/>
     </row>
@@ -4521,7 +4527,7 @@
         <v>38</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="L35" s="17"/>
     </row>

--- a/tabular/contributed/180309 GLE PIB TABLE.xlsx
+++ b/tabular/contributed/180309 GLE PIB TABLE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="1720" windowWidth="41640" windowHeight="24960"/>
+    <workbookView xWindow="8300" yWindow="1720" windowWidth="41640" windowHeight="24960"/>
   </bookViews>
   <sheets>
     <sheet name="GLE" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="141">
   <si>
     <t>Substitution</t>
   </si>
@@ -375,9 +375,6 @@
     <t>168K</t>
   </si>
   <si>
-    <t>Surveyor-1 and -2</t>
-  </si>
-  <si>
     <t>28G+30R</t>
   </si>
   <si>
@@ -448,6 +445,15 @@
   </si>
   <si>
     <t xml:space="preserve">EASL_2017_FRI_205 </t>
+  </si>
+  <si>
+    <t>Magellan-1_Part_1</t>
+  </si>
+  <si>
+    <t>Magellan-1_Part_2</t>
+  </si>
+  <si>
+    <t>Surveyor-1_and_2</t>
   </si>
 </sst>
 </file>
@@ -1038,8 +1044,8 @@
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1060,25 +1066,25 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="G1" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>15</v>
@@ -1090,7 +1096,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>17</v>
@@ -2350,7 +2356,7 @@
         <v>38</v>
       </c>
       <c r="K35" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L35" s="20"/>
       <c r="M35" s="19"/>
@@ -2387,7 +2393,7 @@
         <v>38</v>
       </c>
       <c r="K36" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L36" s="20"/>
       <c r="M36" s="19"/>
@@ -2424,7 +2430,7 @@
         <v>38</v>
       </c>
       <c r="K37" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L37" s="20"/>
       <c r="M37" s="19"/>
@@ -2461,7 +2467,7 @@
         <v>38</v>
       </c>
       <c r="K38" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L38" s="20"/>
       <c r="M38" s="19"/>
@@ -2498,7 +2504,7 @@
         <v>38</v>
       </c>
       <c r="K39" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L39" s="20"/>
       <c r="M39" s="19"/>
@@ -2535,7 +2541,7 @@
         <v>38</v>
       </c>
       <c r="K40" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L40" s="20"/>
       <c r="M40" s="19"/>
@@ -2572,7 +2578,7 @@
         <v>38</v>
       </c>
       <c r="K41" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L41" s="20"/>
       <c r="M41" s="19"/>
@@ -2609,7 +2615,7 @@
         <v>38</v>
       </c>
       <c r="K42" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L42" s="20"/>
       <c r="M42" s="19"/>
@@ -2646,7 +2652,7 @@
         <v>38</v>
       </c>
       <c r="K43" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L43" s="20"/>
       <c r="M43" s="19"/>
@@ -2683,7 +2689,7 @@
         <v>38</v>
       </c>
       <c r="K44" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L44" s="20"/>
       <c r="M44" s="19"/>
@@ -2720,7 +2726,7 @@
         <v>38</v>
       </c>
       <c r="K45" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L45" s="20"/>
       <c r="M45" s="19"/>
@@ -2757,7 +2763,7 @@
         <v>38</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L46" s="17"/>
       <c r="M46" s="19"/>
@@ -2782,7 +2788,7 @@
         <v>38</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="H47" s="28" t="s">
         <v>71</v>
@@ -2819,7 +2825,7 @@
         <v>38</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="H48" s="28" t="s">
         <v>71</v>
@@ -2856,7 +2862,7 @@
         <v>38</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="H49" s="28" t="s">
         <v>71</v>
@@ -2893,7 +2899,7 @@
         <v>38</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H50" s="28" t="s">
         <v>71</v>
@@ -2930,7 +2936,7 @@
         <v>38</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H51" s="28" t="s">
         <v>71</v>
@@ -2967,7 +2973,7 @@
         <v>38</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H52" s="28" t="s">
         <v>71</v>
@@ -3004,7 +3010,7 @@
         <v>38</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H53" s="28" t="s">
         <v>71</v>
@@ -3041,7 +3047,7 @@
         <v>38</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H54" s="28" t="s">
         <v>71</v>
@@ -3078,7 +3084,7 @@
         <v>38</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H55" s="28" t="s">
         <v>71</v>
@@ -3115,7 +3121,7 @@
         <v>38</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H56" s="28" t="s">
         <v>71</v>
@@ -3152,7 +3158,7 @@
         <v>38</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H57" s="28" t="s">
         <v>71</v>
@@ -3189,7 +3195,7 @@
         <v>38</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H58" s="28" t="s">
         <v>71</v>
@@ -3226,7 +3232,7 @@
         <v>38</v>
       </c>
       <c r="G59" s="46" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="H59" s="46"/>
       <c r="I59" s="46"/>
@@ -3249,8 +3255,8 @@
   <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H41" sqref="H41:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3271,37 +3277,37 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>17</v>
@@ -4059,7 +4065,7 @@
         <v>38</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L22" s="17"/>
     </row>
@@ -4095,7 +4101,7 @@
         <v>38</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L23" s="17"/>
     </row>
@@ -4131,7 +4137,7 @@
         <v>38</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L24" s="17"/>
     </row>
@@ -4167,7 +4173,7 @@
         <v>38</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L25" s="17"/>
     </row>
@@ -4203,7 +4209,7 @@
         <v>38</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L26" s="17"/>
     </row>
@@ -4239,7 +4245,7 @@
         <v>38</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L27" s="17"/>
     </row>
@@ -4275,7 +4281,7 @@
         <v>38</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L28" s="17"/>
     </row>
@@ -4311,7 +4317,7 @@
         <v>38</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L29" s="17"/>
     </row>
@@ -4347,7 +4353,7 @@
         <v>38</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L30" s="17"/>
     </row>
@@ -4383,7 +4389,7 @@
         <v>38</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L31" s="17"/>
     </row>
@@ -4419,7 +4425,7 @@
         <v>38</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L32" s="17"/>
     </row>
@@ -4455,7 +4461,7 @@
         <v>38</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L33" s="17"/>
     </row>
@@ -4491,7 +4497,7 @@
         <v>38</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L34" s="17"/>
     </row>
@@ -4527,7 +4533,7 @@
         <v>38</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L35" s="17"/>
     </row>
@@ -4551,7 +4557,7 @@
         <v>38</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>71</v>
@@ -4587,7 +4593,7 @@
         <v>38</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>71</v>
@@ -4623,7 +4629,7 @@
         <v>38</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>71</v>
@@ -4659,7 +4665,7 @@
         <v>38</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>71</v>
@@ -4695,7 +4701,7 @@
         <v>38</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>71</v>
@@ -4731,7 +4737,7 @@
         <v>38</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>71</v>
@@ -4767,7 +4773,7 @@
         <v>38</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>71</v>
@@ -4803,7 +4809,7 @@
         <v>38</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>71</v>
@@ -4824,7 +4830,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C44" s="40" t="s">
         <v>12</v>
@@ -4839,7 +4845,7 @@
         <v>38</v>
       </c>
       <c r="G44" s="42" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H44" s="40" t="s">
         <v>71</v>
@@ -4875,7 +4881,7 @@
         <v>38</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>71</v>
@@ -4911,7 +4917,7 @@
         <v>38</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>71</v>
@@ -4947,7 +4953,7 @@
         <v>38</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>71</v>
@@ -4983,7 +4989,7 @@
         <v>38</v>
       </c>
       <c r="G48" s="42" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H48" s="40" t="s">
         <v>71</v>
@@ -5019,7 +5025,7 @@
         <v>38</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>71</v>
@@ -5055,7 +5061,7 @@
         <v>38</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>71</v>
@@ -5091,7 +5097,7 @@
         <v>38</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>71</v>
@@ -5112,7 +5118,7 @@
         <v>36</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C52" s="40" t="s">
         <v>12</v>
@@ -5127,7 +5133,7 @@
         <v>38</v>
       </c>
       <c r="G52" s="42" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H52" s="40" t="s">
         <v>71</v>
@@ -5163,7 +5169,7 @@
         <v>38</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>71</v>
@@ -5199,7 +5205,7 @@
         <v>38</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>71</v>
@@ -5235,7 +5241,7 @@
         <v>38</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H55" s="13" t="s">
         <v>71</v>
@@ -5271,7 +5277,7 @@
         <v>38</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H56" s="13" t="s">
         <v>71</v>
@@ -5406,7 +5412,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5416,47 +5422,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
